--- a/results/resOnDevSet.xlsx
+++ b/results/resOnDevSet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilantc\workspace\NLP_HW1_2\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilantc\workspace\NLP_HW1\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="resOnDevSet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -1129,7 +1129,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K20" sqref="K20"/>
+      <selection pane="bottomLeft" activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
